--- a/Documents/LED Current.xlsx
+++ b/Documents/LED Current.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t>Red</t>
   </si>
@@ -78,7 +78,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -365,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -424,8 +444,120 @@
         <v>2.2328999999999999</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>104</v>
+      </c>
+      <c r="C9">
+        <f>0.0175*B9+0.4495</f>
+        <v>2.2695000000000003</v>
+      </c>
+      <c r="D9">
+        <f>C9+C10+C11</f>
+        <v>7.3045999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>135</v>
+      </c>
+      <c r="C10">
+        <f>0.0181*B10+0.3587</f>
+        <v>2.8022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>130</v>
+      </c>
+      <c r="C11">
+        <f>0.016*B11+0.1529</f>
+        <v>2.2328999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>255</v>
+      </c>
+      <c r="C16">
+        <f>0.0175*B16+0.4495</f>
+        <v>4.9120000000000008</v>
+      </c>
+      <c r="D16">
+        <f>C16+C17+C18</f>
+        <v>5.4236000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <f>0.0181*B17+0.3587</f>
+        <v>0.35870000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <f>0.016*B18+0.1529</f>
+        <v>0.15290000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D2">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>4.3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>4.3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>4.3</formula>
     </cfRule>

--- a/Documents/LED Current.xlsx
+++ b/Documents/LED Current.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="6">
   <si>
     <t>Red</t>
   </si>
@@ -43,7 +43,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,16 +51,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -68,17 +80,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -385,15 +425,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -403,12 +443,21 @@
       <c r="D1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>104</v>
       </c>
       <c r="C2">
@@ -419,32 +468,66 @@
         <f>C2+C3+C4</f>
         <v>7.3045999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>(H2-0.4495)/0.0175</f>
+        <v>145.74285714285713</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <f>SUM(H2:H4)</f>
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>135</v>
       </c>
       <c r="C3">
         <f>0.0181*B3+0.3587</f>
         <v>2.8022</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f>(H3-0.3587)/0.0181</f>
+        <v>217.75138121546959</v>
+      </c>
+      <c r="H3" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>130</v>
       </c>
       <c r="C4">
         <f>0.016*B4+0.1529</f>
         <v>2.2328999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f>(H4-0.1529)/0.016</f>
+        <v>259.19375000000002</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -454,48 +537,91 @@
       <c r="D8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B9">
-        <v>104</v>
+      <c r="B9" s="1">
+        <v>255</v>
       </c>
       <c r="C9">
         <f>0.0175*B9+0.4495</f>
-        <v>2.2695000000000003</v>
+        <v>4.9120000000000008</v>
       </c>
       <c r="D9">
         <f>C9+C10+C11</f>
-        <v>7.3045999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>9.9471000000000007</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f>(H9-0.4495)/0.0175</f>
+        <v>220.02857142857141</v>
+      </c>
+      <c r="H9" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="I9">
+        <f>SUM(H9:H11)</f>
+        <v>12.899999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>135</v>
       </c>
       <c r="C10">
         <f>0.0181*B10+0.3587</f>
         <v>2.8022</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f>(H10-0.3587)/0.0181</f>
+        <v>217.75138121546959</v>
+      </c>
+      <c r="H10" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>2</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>130</v>
       </c>
       <c r="C11">
         <f>0.016*B11+0.1529</f>
         <v>2.2328999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <f>(H11-0.1529)/0.016</f>
+        <v>259.19375000000002</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -505,12 +631,21 @@
       <c r="D15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>0</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>255</v>
       </c>
       <c r="C16">
@@ -521,43 +656,82 @@
         <f>C16+C17+C18</f>
         <v>5.4236000000000004</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f>(H16-0.4495)/0.0175</f>
+        <v>220.02857142857141</v>
+      </c>
+      <c r="H16" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="I16">
+        <f>SUM(H16:H18)</f>
+        <v>12.899999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>0</v>
       </c>
       <c r="C17">
         <f>0.0181*B17+0.3587</f>
         <v>0.35870000000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <f>(H17-0.3587)/0.0181</f>
+        <v>217.75138121546959</v>
+      </c>
+      <c r="H17" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>2</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>0</v>
       </c>
       <c r="C18">
         <f>0.016*B18+0.1529</f>
         <v>0.15290000000000001</v>
       </c>
+      <c r="F18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <f>(H18-0.1529)/0.016</f>
+        <v>259.19375000000002</v>
+      </c>
+      <c r="H18" s="1">
+        <v>4.3</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2">
+  <conditionalFormatting sqref="D2 D9 D16 I2 I9 I16">
+    <cfRule type="cellIs" dxfId="3" priority="25" operator="greaterThan">
+      <formula>4.3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>4.3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
+  <conditionalFormatting sqref="I4">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>4.3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
+  <conditionalFormatting sqref="I10">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>4.3</formula>
     </cfRule>

--- a/Documents/LED Current.xlsx
+++ b/Documents/LED Current.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="8">
   <si>
     <t>Red</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>Total Current</t>
+  </si>
+  <si>
+    <t>Factpr</t>
+  </si>
+  <si>
+    <t>Def Vals</t>
   </si>
 </sst>
 </file>
@@ -425,15 +431,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -453,7 +459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -483,7 +489,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -505,7 +511,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -527,7 +533,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -546,21 +552,31 @@
       <c r="I8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <v>0.5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="1">
-        <v>255</v>
+        <f>N9*$L$8</f>
+        <v>52</v>
       </c>
       <c r="C9">
         <f>0.0175*B9+0.4495</f>
-        <v>4.9120000000000008</v>
+        <v>1.3595000000000002</v>
       </c>
       <c r="D9">
         <f>C9+C10+C11</f>
-        <v>9.9471000000000007</v>
+        <v>4.1328500000000004</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
@@ -576,17 +592,21 @@
         <f>SUM(H9:H11)</f>
         <v>12.899999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="N9">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="1">
-        <v>135</v>
+        <f>N10*$L$8</f>
+        <v>67.5</v>
       </c>
       <c r="C10">
         <f>0.0181*B10+0.3587</f>
-        <v>2.8022</v>
+        <v>1.5804500000000001</v>
       </c>
       <c r="F10" t="s">
         <v>1</v>
@@ -598,17 +618,21 @@
       <c r="H10" s="1">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="N10">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="1">
-        <v>130</v>
+        <f>N11*$L$8</f>
+        <v>65</v>
       </c>
       <c r="C11">
         <f>0.016*B11+0.1529</f>
-        <v>2.2328999999999999</v>
+        <v>1.1929000000000001</v>
       </c>
       <c r="F11" t="s">
         <v>2</v>
@@ -620,8 +644,11 @@
       <c r="H11" s="1">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="N11">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -641,7 +668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>0</v>
       </c>

--- a/Documents/LED Current.xlsx
+++ b/Documents/LED Current.xlsx
@@ -434,7 +434,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -556,7 +556,7 @@
         <v>6</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="N8" t="s">
         <v>7</v>
@@ -568,15 +568,15 @@
       </c>
       <c r="B9" s="1">
         <f>N9*$L$8</f>
-        <v>52</v>
+        <v>54.08</v>
       </c>
       <c r="C9">
         <f>0.0175*B9+0.4495</f>
-        <v>1.3595000000000002</v>
+        <v>1.3959000000000001</v>
       </c>
       <c r="D9">
         <f>C9+C10+C11</f>
-        <v>4.1328500000000004</v>
+        <v>4.2597199999999997</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
@@ -602,11 +602,11 @@
       </c>
       <c r="B10" s="1">
         <f>N10*$L$8</f>
-        <v>67.5</v>
+        <v>70.2</v>
       </c>
       <c r="C10">
         <f>0.0181*B10+0.3587</f>
-        <v>1.5804500000000001</v>
+        <v>1.6293200000000001</v>
       </c>
       <c r="F10" t="s">
         <v>1</v>
@@ -628,11 +628,11 @@
       </c>
       <c r="B11" s="1">
         <f>N11*$L$8</f>
-        <v>65</v>
+        <v>67.600000000000009</v>
       </c>
       <c r="C11">
         <f>0.016*B11+0.1529</f>
-        <v>1.1929000000000001</v>
+        <v>1.2345000000000002</v>
       </c>
       <c r="F11" t="s">
         <v>2</v>
@@ -673,15 +673,15 @@
         <v>0</v>
       </c>
       <c r="B16" s="1">
-        <v>255</v>
+        <v>54</v>
       </c>
       <c r="C16">
         <f>0.0175*B16+0.4495</f>
-        <v>4.9120000000000008</v>
+        <v>1.3945000000000001</v>
       </c>
       <c r="D16">
         <f>C16+C17+C18</f>
-        <v>5.4236000000000004</v>
+        <v>4.2610999999999999</v>
       </c>
       <c r="F16" t="s">
         <v>0</v>
@@ -703,11 +703,11 @@
         <v>1</v>
       </c>
       <c r="B17" s="1">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C17">
         <f>0.0181*B17+0.3587</f>
-        <v>0.35870000000000002</v>
+        <v>1.6257000000000001</v>
       </c>
       <c r="F17" t="s">
         <v>1</v>
@@ -725,11 +725,11 @@
         <v>2</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="C18">
         <f>0.016*B18+0.1529</f>
-        <v>0.15290000000000001</v>
+        <v>1.2409000000000001</v>
       </c>
       <c r="F18" t="s">
         <v>2</v>

--- a/Documents/LED Current.xlsx
+++ b/Documents/LED Current.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="9">
   <si>
     <t>Red</t>
   </si>
@@ -44,12 +44,15 @@
   <si>
     <t>Def Vals</t>
   </si>
+  <si>
+    <t>Suggested</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,6 +63,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,19 +113,72 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Explanatory Text" xfId="2" builtinId="53"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -431,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -742,24 +806,86 @@
         <v>4.3</v>
       </c>
     </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2">
+        <v>104</v>
+      </c>
+      <c r="C22" s="2">
+        <f>0.0175*B22+0.4495</f>
+        <v>2.2695000000000003</v>
+      </c>
+      <c r="D22" s="2">
+        <f>C22+C23+C24</f>
+        <v>7.3045999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2">
+        <v>135</v>
+      </c>
+      <c r="C23" s="2">
+        <f>0.0181*B23+0.3587</f>
+        <v>2.8022</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2">
+        <v>130</v>
+      </c>
+      <c r="C24" s="2">
+        <f>0.016*B24+0.1529</f>
+        <v>2.2328999999999999</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D2 D9 D16 I2 I9 I16">
-    <cfRule type="cellIs" dxfId="3" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="26" operator="greaterThan">
       <formula>4.3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>4.3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
       <formula>4.3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>4.3</formula>
     </cfRule>
   </conditionalFormatting>
